--- a/Source_Files/RMI_-_Bonus_Report_for_Finance (1).xlsx
+++ b/Source_Files/RMI_-_Bonus_Report_for_Finance (1).xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1945E-72E9-47AE-98DD-99DBBBF2F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47FD1B8-9EB5-4A3D-9116-8D773063CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RMI - Bonus Report for Finance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="1675">
   <si>
     <t>Company</t>
   </si>
@@ -2650,7 +2650,7 @@
     <t>001483</t>
   </si>
   <si>
-    <t>Jared Pruzan (On Leave)</t>
+    <t>Jared Pruzan</t>
   </si>
   <si>
     <t>001484</t>
@@ -3370,6 +3370,9 @@
     <t>001657</t>
   </si>
   <si>
+    <t>Social Media Specialist</t>
+  </si>
+  <si>
     <t>Joni Short</t>
   </si>
   <si>
@@ -3427,7 +3430,7 @@
     <t>001672</t>
   </si>
   <si>
-    <t>Senior Research and Data Analyst</t>
+    <t>Senior Business Data Analyst</t>
   </si>
   <si>
     <t>Gabrielle Couderc (On Leave)</t>
@@ -3880,7 +3883,7 @@
     <t>Grants Lead</t>
   </si>
   <si>
-    <t>Jessica Ciemniecki</t>
+    <t>Jessica Ciemniecki (On Leave)</t>
   </si>
   <si>
     <t>001809</t>
@@ -5017,6 +5020,18 @@
     <t>002060</t>
   </si>
   <si>
+    <t>Alan Zenagui</t>
+  </si>
+  <si>
+    <t>002062</t>
+  </si>
+  <si>
+    <t>Diamond Terrell</t>
+  </si>
+  <si>
+    <t>002063</t>
+  </si>
+  <si>
     <t>Michael Willems</t>
   </si>
   <si>
@@ -5024,6 +5039,12 @@
   </si>
   <si>
     <t>Procurement Systems Specialist</t>
+  </si>
+  <si>
+    <t>Kathryn Edwards | Kat Edwards</t>
+  </si>
+  <si>
+    <t>002069</t>
   </si>
 </sst>
 </file>
@@ -5462,11 +5483,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J727"/>
+  <dimension ref="A1:J730"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12975,7 +12994,7 @@
         <v>44424</v>
       </c>
       <c r="E235" s="7">
-        <v>195071.7</v>
+        <v>175564.53</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>36</v>
@@ -12987,10 +13006,10 @@
         <v>0.2</v>
       </c>
       <c r="I235" s="6">
-        <v>39014.339999999997</v>
+        <v>35112.906000000003</v>
       </c>
       <c r="J235" s="6">
-        <v>3251.1950000000002</v>
+        <v>2926.0754999999999</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -14319,22 +14338,22 @@
         <v>44494</v>
       </c>
       <c r="E277" s="7">
-        <v>94812.800000000003</v>
+        <v>106000</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="H277" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I277" s="6">
-        <v>4740.6400000000003</v>
+        <v>10600</v>
       </c>
       <c r="J277" s="6">
-        <v>395.05333300000001</v>
+        <v>883.33333300000004</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -20783,22 +20802,22 @@
         <v>44859</v>
       </c>
       <c r="E479" s="7">
-        <v>72625.3</v>
+        <v>75000</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>70</v>
+        <v>1116</v>
       </c>
       <c r="H479" s="5">
         <v>0.05</v>
       </c>
       <c r="I479" s="6">
-        <v>3631.2649999999999</v>
+        <v>3750</v>
       </c>
       <c r="J479" s="6">
-        <v>302.60541699999999</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -20806,10 +20825,10 @@
         <v>10</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D480" s="3">
         <v>44859</v>
@@ -20821,7 +20840,7 @@
         <v>36</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H480" s="5">
         <v>0.05</v>
@@ -20838,10 +20857,10 @@
         <v>10</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D481" s="3">
         <v>44866</v>
@@ -20870,10 +20889,10 @@
         <v>10</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D482" s="3">
         <v>44873</v>
@@ -20902,10 +20921,10 @@
         <v>10</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D483" s="3">
         <v>44873</v>
@@ -20917,7 +20936,7 @@
         <v>36</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H483" s="5">
         <v>0.1</v>
@@ -20934,10 +20953,10 @@
         <v>10</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D484" s="3">
         <v>44873</v>
@@ -20966,10 +20985,10 @@
         <v>10</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D485" s="3">
         <v>44887</v>
@@ -20998,10 +21017,10 @@
         <v>10</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D486" s="3">
         <v>44893</v>
@@ -21013,7 +21032,7 @@
         <v>36</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H486" s="5">
         <v>0.05</v>
@@ -21030,31 +21049,31 @@
         <v>10</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D487" s="3">
         <v>44901</v>
       </c>
       <c r="E487" s="7">
-        <v>90176.5</v>
+        <v>96000</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H487" s="5">
         <v>0.05</v>
       </c>
       <c r="I487" s="6">
-        <v>4508.8249999999998</v>
+        <v>4800</v>
       </c>
       <c r="J487" s="6">
-        <v>375.73541699999998</v>
+        <v>400</v>
       </c>
     </row>
     <row r="488" spans="1:10" ht="25" x14ac:dyDescent="0.25">
@@ -21062,10 +21081,10 @@
         <v>10</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D488" s="3">
         <v>44943</v>
@@ -21094,10 +21113,10 @@
         <v>10</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D489" s="3">
         <v>44896</v>
@@ -21126,10 +21145,10 @@
         <v>10</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D490" s="3">
         <v>44901</v>
@@ -21141,7 +21160,7 @@
         <v>36</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H490" s="5">
         <v>0.05</v>
@@ -21158,10 +21177,10 @@
         <v>10</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D491" s="3">
         <v>44901</v>
@@ -21190,10 +21209,10 @@
         <v>10</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D492" s="3">
         <v>44915</v>
@@ -21222,10 +21241,10 @@
         <v>10</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D493" s="3">
         <v>44901</v>
@@ -21254,10 +21273,10 @@
         <v>10</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D494" s="3">
         <v>44936</v>
@@ -21286,10 +21305,10 @@
         <v>10</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D495" s="3">
         <v>44943</v>
@@ -21318,10 +21337,10 @@
         <v>10</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D496" s="3">
         <v>44936</v>
@@ -21333,7 +21352,7 @@
         <v>36</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H496" s="5">
         <v>0.2</v>
@@ -21350,10 +21369,10 @@
         <v>10</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D497" s="3">
         <v>44936</v>
@@ -21365,7 +21384,7 @@
         <v>36</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H497" s="5">
         <v>0.05</v>
@@ -21382,10 +21401,10 @@
         <v>10</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D498" s="3">
         <v>44936</v>
@@ -21397,7 +21416,7 @@
         <v>36</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H498" s="5">
         <v>0.05</v>
@@ -21414,10 +21433,10 @@
         <v>10</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D499" s="3">
         <v>44936</v>
@@ -21446,10 +21465,10 @@
         <v>10</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D500" s="3">
         <v>44936</v>
@@ -21478,10 +21497,10 @@
         <v>10</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D501" s="3">
         <v>44943</v>
@@ -21510,10 +21529,10 @@
         <v>10</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D502" s="3">
         <v>44943</v>
@@ -21542,10 +21561,10 @@
         <v>10</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D503" s="3">
         <v>44943</v>
@@ -21574,10 +21593,10 @@
         <v>10</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D504" s="3">
         <v>44943</v>
@@ -21606,10 +21625,10 @@
         <v>10</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D505" s="3">
         <v>44943</v>
@@ -21638,10 +21657,10 @@
         <v>10</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D506" s="3">
         <v>44943</v>
@@ -21670,10 +21689,10 @@
         <v>10</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D507" s="3">
         <v>44943</v>
@@ -21702,10 +21721,10 @@
         <v>10</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D508" s="3">
         <v>44943</v>
@@ -21734,10 +21753,10 @@
         <v>10</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D509" s="3">
         <v>44943</v>
@@ -21766,10 +21785,10 @@
         <v>10</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D510" s="3">
         <v>44943</v>
@@ -21798,10 +21817,10 @@
         <v>10</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D511" s="3">
         <v>44943</v>
@@ -21830,10 +21849,10 @@
         <v>10</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D512" s="3">
         <v>44950</v>
@@ -21862,10 +21881,10 @@
         <v>10</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D513" s="3">
         <v>44943</v>
@@ -21894,10 +21913,10 @@
         <v>10</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D514" s="3">
         <v>44943</v>
@@ -21926,10 +21945,10 @@
         <v>10</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D515" s="3">
         <v>44943</v>
@@ -21958,10 +21977,10 @@
         <v>10</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D516" s="3">
         <v>44943</v>
@@ -21990,10 +22009,10 @@
         <v>10</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D517" s="3">
         <v>44943</v>
@@ -22022,10 +22041,10 @@
         <v>10</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D518" s="3">
         <v>44943</v>
@@ -22054,10 +22073,10 @@
         <v>10</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D519" s="3">
         <v>44943</v>
@@ -22086,10 +22105,10 @@
         <v>10</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D520" s="3">
         <v>44943</v>
@@ -22118,10 +22137,10 @@
         <v>10</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D521" s="3">
         <v>44943</v>
@@ -22133,7 +22152,7 @@
         <v>36</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H521" s="5">
         <v>0.05</v>
@@ -22150,10 +22169,10 @@
         <v>10</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D522" s="3">
         <v>44958</v>
@@ -22182,10 +22201,10 @@
         <v>10</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D523" s="3">
         <v>44943</v>
@@ -22214,10 +22233,10 @@
         <v>10</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D524" s="3">
         <v>44958</v>
@@ -22246,10 +22265,10 @@
         <v>10</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D525" s="3">
         <v>44957</v>
@@ -22278,10 +22297,10 @@
         <v>10</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D526" s="3">
         <v>44958</v>
@@ -22293,7 +22312,7 @@
         <v>36</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H526" s="5">
         <v>0.05</v>
@@ -22310,10 +22329,10 @@
         <v>10</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D527" s="3">
         <v>44999</v>
@@ -22325,7 +22344,7 @@
         <v>36</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H527" s="5">
         <v>0.2</v>
@@ -22342,10 +22361,10 @@
         <v>10</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D528" s="3">
         <v>44958</v>
@@ -22374,10 +22393,10 @@
         <v>10</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D529" s="3">
         <v>44964</v>
@@ -22389,7 +22408,7 @@
         <v>36</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H529" s="5">
         <v>0.05</v>
@@ -22406,10 +22425,10 @@
         <v>10</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D530" s="3">
         <v>44978</v>
@@ -22421,7 +22440,7 @@
         <v>36</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H530" s="5">
         <v>0.05</v>
@@ -22438,10 +22457,10 @@
         <v>10</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D531" s="3">
         <v>44978</v>
@@ -22470,10 +22489,10 @@
         <v>10</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D532" s="3">
         <v>44986</v>
@@ -22502,10 +22521,10 @@
         <v>10</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D533" s="3">
         <v>44986</v>
@@ -22534,10 +22553,10 @@
         <v>10</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D534" s="3">
         <v>44992</v>
@@ -22566,10 +22585,10 @@
         <v>10</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D535" s="3">
         <v>44999</v>
@@ -22598,10 +22617,10 @@
         <v>10</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D536" s="3">
         <v>44999</v>
@@ -22630,10 +22649,10 @@
         <v>10</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D537" s="3">
         <v>45055</v>
@@ -22662,10 +22681,10 @@
         <v>10</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D538" s="3">
         <v>45391</v>
@@ -22694,10 +22713,10 @@
         <v>10</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D539" s="3">
         <v>45426</v>
@@ -22726,10 +22745,10 @@
         <v>10</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D540" s="3">
         <v>45188</v>
@@ -22758,10 +22777,10 @@
         <v>10</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D541" s="3">
         <v>45433</v>
@@ -22790,10 +22809,10 @@
         <v>10</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D542" s="3">
         <v>45209</v>
@@ -22805,7 +22824,7 @@
         <v>36</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H542" s="5">
         <v>0.05</v>
@@ -22822,10 +22841,10 @@
         <v>10</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D543" s="3">
         <v>45328</v>
@@ -22837,7 +22856,7 @@
         <v>36</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H543" s="5">
         <v>0.05</v>
@@ -22854,10 +22873,10 @@
         <v>10</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D544" s="3">
         <v>45231</v>
@@ -22886,10 +22905,10 @@
         <v>10</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D545" s="3">
         <v>45027</v>
@@ -22901,7 +22920,7 @@
         <v>36</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H545" s="5">
         <v>0.05</v>
@@ -22918,10 +22937,10 @@
         <v>10</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D546" s="3">
         <v>45020</v>
@@ -22950,10 +22969,10 @@
         <v>10</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D547" s="3">
         <v>45020</v>
@@ -22965,7 +22984,7 @@
         <v>36</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H547" s="5">
         <v>0.2</v>
@@ -22982,10 +23001,10 @@
         <v>10</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D548" s="3">
         <v>45139</v>
@@ -23014,10 +23033,10 @@
         <v>10</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D549" s="3">
         <v>45027</v>
@@ -23046,10 +23065,10 @@
         <v>10</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D550" s="3">
         <v>45055</v>
@@ -23078,10 +23097,10 @@
         <v>10</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D551" s="3">
         <v>45027</v>
@@ -23110,10 +23129,10 @@
         <v>10</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D552" s="3">
         <v>45041</v>
@@ -23142,10 +23161,10 @@
         <v>10</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D553" s="3">
         <v>45034</v>
@@ -23174,10 +23193,10 @@
         <v>10</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D554" s="3">
         <v>45047</v>
@@ -23206,10 +23225,10 @@
         <v>10</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D555" s="3">
         <v>45027</v>
@@ -23221,7 +23240,7 @@
         <v>36</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H555" s="5">
         <v>0.05</v>
@@ -23238,10 +23257,10 @@
         <v>10</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D556" s="3">
         <v>45055</v>
@@ -23270,10 +23289,10 @@
         <v>10</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D557" s="3">
         <v>45033</v>
@@ -23302,10 +23321,10 @@
         <v>10</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D558" s="3">
         <v>45078</v>
@@ -23334,10 +23353,10 @@
         <v>10</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D559" s="3">
         <v>45062</v>
@@ -23366,10 +23385,10 @@
         <v>10</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D560" s="3">
         <v>45041</v>
@@ -23398,10 +23417,10 @@
         <v>10</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D561" s="3">
         <v>45054</v>
@@ -23430,10 +23449,10 @@
         <v>10</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D562" s="3">
         <v>45047</v>
@@ -23462,10 +23481,10 @@
         <v>10</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D563" s="3">
         <v>45078</v>
@@ -23494,10 +23513,10 @@
         <v>10</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D564" s="3">
         <v>45083</v>
@@ -23526,10 +23545,10 @@
         <v>10</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D565" s="3">
         <v>45083</v>
@@ -23558,10 +23577,10 @@
         <v>10</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D566" s="3">
         <v>45069</v>
@@ -23590,10 +23609,10 @@
         <v>10</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D567" s="3">
         <v>45062</v>
@@ -23622,10 +23641,10 @@
         <v>10</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D568" s="3">
         <v>45097</v>
@@ -23654,10 +23673,10 @@
         <v>10</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D569" s="3">
         <v>45083</v>
@@ -23669,7 +23688,7 @@
         <v>36</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H569" s="5">
         <v>0.1</v>
@@ -23686,10 +23705,10 @@
         <v>10</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D570" s="3">
         <v>45103</v>
@@ -23701,7 +23720,7 @@
         <v>36</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H570" s="5">
         <v>0.25</v>
@@ -23718,10 +23737,10 @@
         <v>10</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D571" s="3">
         <v>45104</v>
@@ -23750,10 +23769,10 @@
         <v>10</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D572" s="3">
         <v>45107</v>
@@ -23782,10 +23801,10 @@
         <v>10</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D573" s="3">
         <v>45125</v>
@@ -23814,10 +23833,10 @@
         <v>10</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D574" s="3">
         <v>45139</v>
@@ -23846,10 +23865,10 @@
         <v>10</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D575" s="3">
         <v>45103</v>
@@ -23878,10 +23897,10 @@
         <v>10</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D576" s="3">
         <v>45103</v>
@@ -23910,10 +23929,10 @@
         <v>10</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D577" s="3">
         <v>45103</v>
@@ -23942,10 +23961,10 @@
         <v>10</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D578" s="3">
         <v>45118</v>
@@ -23974,10 +23993,10 @@
         <v>10</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D579" s="3">
         <v>45146</v>
@@ -24006,10 +24025,10 @@
         <v>10</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D580" s="3">
         <v>45139</v>
@@ -24038,10 +24057,10 @@
         <v>10</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D581" s="3">
         <v>45125</v>
@@ -24053,7 +24072,7 @@
         <v>36</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H581" s="5">
         <v>0.05</v>
@@ -24070,10 +24089,10 @@
         <v>10</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D582" s="3">
         <v>45174</v>
@@ -24102,10 +24121,10 @@
         <v>10</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D583" s="3">
         <v>45103</v>
@@ -24134,10 +24153,10 @@
         <v>10</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D584" s="3">
         <v>45125</v>
@@ -24149,7 +24168,7 @@
         <v>36</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H584" s="5">
         <v>0.05</v>
@@ -24166,10 +24185,10 @@
         <v>10</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D585" s="3">
         <v>45132</v>
@@ -24198,10 +24217,10 @@
         <v>10</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D586" s="3">
         <v>45125</v>
@@ -24230,10 +24249,10 @@
         <v>10</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D587" s="3">
         <v>45132</v>
@@ -24262,10 +24281,10 @@
         <v>10</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D588" s="3">
         <v>45132</v>
@@ -24294,10 +24313,10 @@
         <v>10</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D589" s="3">
         <v>45146</v>
@@ -24326,10 +24345,10 @@
         <v>10</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D590" s="3">
         <v>45146</v>
@@ -24358,10 +24377,10 @@
         <v>10</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D591" s="3">
         <v>45146</v>
@@ -24390,10 +24409,10 @@
         <v>10</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D592" s="3">
         <v>45131</v>
@@ -24422,16 +24441,16 @@
         <v>10</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D593" s="3">
         <v>45202</v>
       </c>
       <c r="E593" s="7">
-        <v>96518.84</v>
+        <v>95837.71</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>36</v>
@@ -24443,10 +24462,10 @@
         <v>0.05</v>
       </c>
       <c r="I593" s="6">
-        <v>4825.942</v>
+        <v>4791.8855000000003</v>
       </c>
       <c r="J593" s="6">
-        <v>402.161833</v>
+        <v>399.32379200000003</v>
       </c>
     </row>
     <row r="594" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -24454,10 +24473,10 @@
         <v>10</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D594" s="3">
         <v>45174</v>
@@ -24469,7 +24488,7 @@
         <v>36</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H594" s="5">
         <v>0.05</v>
@@ -24486,10 +24505,10 @@
         <v>10</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D595" s="3">
         <v>45153</v>
@@ -24518,10 +24537,10 @@
         <v>10</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D596" s="3">
         <v>45181</v>
@@ -24550,10 +24569,10 @@
         <v>10</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D597" s="3">
         <v>45160</v>
@@ -24582,10 +24601,10 @@
         <v>10</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D598" s="3">
         <v>45139</v>
@@ -24597,7 +24616,7 @@
         <v>36</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H598" s="5">
         <v>0.05</v>
@@ -24614,10 +24633,10 @@
         <v>10</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D599" s="3">
         <v>45181</v>
@@ -24629,7 +24648,7 @@
         <v>36</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H599" s="5">
         <v>0.05</v>
@@ -24646,10 +24665,10 @@
         <v>10</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D600" s="3">
         <v>45188</v>
@@ -24678,10 +24697,10 @@
         <v>10</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D601" s="3">
         <v>45188</v>
@@ -24710,10 +24729,10 @@
         <v>10</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D602" s="3">
         <v>45188</v>
@@ -24742,10 +24761,10 @@
         <v>10</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D603" s="3">
         <v>45174</v>
@@ -24774,10 +24793,10 @@
         <v>10</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D604" s="3">
         <v>45181</v>
@@ -24806,10 +24825,10 @@
         <v>10</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D605" s="3">
         <v>45188</v>
@@ -24821,7 +24840,7 @@
         <v>36</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H605" s="5">
         <v>0.1</v>
@@ -24838,10 +24857,10 @@
         <v>10</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D606" s="3">
         <v>45180</v>
@@ -24853,7 +24872,7 @@
         <v>13</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H606" s="5">
         <v>0.1</v>
@@ -24870,10 +24889,10 @@
         <v>10</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D607" s="3">
         <v>45202</v>
@@ -24902,10 +24921,10 @@
         <v>10</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D608" s="3">
         <v>45202</v>
@@ -24934,10 +24953,10 @@
         <v>10</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D609" s="3">
         <v>45209</v>
@@ -24966,10 +24985,10 @@
         <v>10</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D610" s="3">
         <v>45216</v>
@@ -24998,10 +25017,10 @@
         <v>10</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D611" s="3">
         <v>45231</v>
@@ -25030,10 +25049,10 @@
         <v>10</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D612" s="3">
         <v>45231</v>
@@ -25062,10 +25081,10 @@
         <v>10</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D613" s="3">
         <v>45244</v>
@@ -25094,10 +25113,10 @@
         <v>10</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D614" s="3">
         <v>45244</v>
@@ -25126,10 +25145,10 @@
         <v>10</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D615" s="3">
         <v>45237</v>
@@ -25158,10 +25177,10 @@
         <v>10</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D616" s="3">
         <v>45244</v>
@@ -25173,7 +25192,7 @@
         <v>36</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H616" s="5">
         <v>0.05</v>
@@ -25190,10 +25209,10 @@
         <v>10</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D617" s="3">
         <v>45293</v>
@@ -25222,10 +25241,10 @@
         <v>10</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D618" s="3">
         <v>45261</v>
@@ -25237,7 +25256,7 @@
         <v>36</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H618" s="5">
         <v>0.1</v>
@@ -25254,10 +25273,10 @@
         <v>10</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D619" s="3">
         <v>45265</v>
@@ -25269,7 +25288,7 @@
         <v>36</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H619" s="5">
         <v>0.05</v>
@@ -25286,10 +25305,10 @@
         <v>10</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D620" s="3">
         <v>45342</v>
@@ -25318,10 +25337,10 @@
         <v>10</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D621" s="3">
         <v>45300</v>
@@ -25350,10 +25369,10 @@
         <v>10</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D622" s="3">
         <v>45413</v>
@@ -25382,10 +25401,10 @@
         <v>10</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D623" s="3">
         <v>45314</v>
@@ -25414,10 +25433,10 @@
         <v>10</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D624" s="3">
         <v>45314</v>
@@ -25429,7 +25448,7 @@
         <v>36</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H624" s="5">
         <v>0.05</v>
@@ -25446,10 +25465,10 @@
         <v>10</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D625" s="3">
         <v>45328</v>
@@ -25478,10 +25497,10 @@
         <v>10</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D626" s="3">
         <v>45323</v>
@@ -25510,10 +25529,10 @@
         <v>10</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D627" s="3">
         <v>45323</v>
@@ -25542,10 +25561,10 @@
         <v>10</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D628" s="3">
         <v>45314</v>
@@ -25574,10 +25593,10 @@
         <v>10</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D629" s="3">
         <v>45323</v>
@@ -25606,10 +25625,10 @@
         <v>10</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D630" s="3">
         <v>45323</v>
@@ -25638,10 +25657,10 @@
         <v>10</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D631" s="3">
         <v>45300</v>
@@ -25670,10 +25689,10 @@
         <v>10</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D632" s="3">
         <v>45356</v>
@@ -25685,7 +25704,7 @@
         <v>36</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H632" s="5">
         <v>0.05</v>
@@ -25702,10 +25721,10 @@
         <v>10</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D633" s="3">
         <v>45363</v>
@@ -25734,10 +25753,10 @@
         <v>10</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D634" s="3">
         <v>45356</v>
@@ -25766,10 +25785,10 @@
         <v>10</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D635" s="3">
         <v>45352</v>
@@ -25778,10 +25797,10 @@
         <v>23223477</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G635" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H635" s="5">
         <v>0.25</v>
@@ -25798,10 +25817,10 @@
         <v>10</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D636" s="3">
         <v>45352</v>
@@ -25810,7 +25829,7 @@
         <v>12114270</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G636" s="2" t="s">
         <v>20</v>
@@ -25830,10 +25849,10 @@
         <v>10</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D637" s="3">
         <v>45352</v>
@@ -25842,7 +25861,7 @@
         <v>9129458.5600000005</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G637" s="2" t="s">
         <v>23</v>
@@ -25862,10 +25881,10 @@
         <v>10</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D638" s="3">
         <v>45352</v>
@@ -25874,7 +25893,7 @@
         <v>9400398</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G638" s="2" t="s">
         <v>23</v>
@@ -25894,10 +25913,10 @@
         <v>10</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D639" s="3">
         <v>45352</v>
@@ -25906,10 +25925,10 @@
         <v>14382111.449999999</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G639" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H639" s="5">
         <v>0.2</v>
@@ -25926,10 +25945,10 @@
         <v>10</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D640" s="3">
         <v>45352</v>
@@ -25938,10 +25957,10 @@
         <v>6155857.0499999998</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G640" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H640" s="5">
         <v>0.1</v>
@@ -25958,10 +25977,10 @@
         <v>10</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D641" s="3">
         <v>45352</v>
@@ -25970,7 +25989,7 @@
         <v>7048792.7999999998</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G641" s="2" t="s">
         <v>132</v>
@@ -25990,10 +26009,10 @@
         <v>10</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D642" s="3">
         <v>45352</v>
@@ -26002,7 +26021,7 @@
         <v>7210014</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G642" s="2" t="s">
         <v>132</v>
@@ -26022,10 +26041,10 @@
         <v>10</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D643" s="3">
         <v>45352</v>
@@ -26034,7 +26053,7 @@
         <v>8628860</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G643" s="2" t="s">
         <v>23</v>
@@ -26054,10 +26073,10 @@
         <v>10</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D644" s="3">
         <v>45352</v>
@@ -26066,7 +26085,7 @@
         <v>6872510.2000000002</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G644" s="2" t="s">
         <v>132</v>
@@ -26086,10 +26105,10 @@
         <v>10</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D645" s="3">
         <v>45352</v>
@@ -26098,7 +26117,7 @@
         <v>5816998</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G645" s="2" t="s">
         <v>321</v>
@@ -26118,10 +26137,10 @@
         <v>10</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D646" s="3">
         <v>45352</v>
@@ -26130,7 +26149,7 @@
         <v>8887725.8000000007</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G646" s="2" t="s">
         <v>23</v>
@@ -26150,10 +26169,10 @@
         <v>10</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D647" s="3">
         <v>45352</v>
@@ -26162,7 +26181,7 @@
         <v>6107847.9000000004</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G647" s="2" t="s">
         <v>321</v>
@@ -26182,10 +26201,10 @@
         <v>10</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D648" s="3">
         <v>45352</v>
@@ -26194,10 +26213,10 @@
         <v>3029997</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G648" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H648" s="5">
         <v>0.05</v>
@@ -26214,10 +26233,10 @@
         <v>10</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D649" s="3">
         <v>45352</v>
@@ -26226,10 +26245,10 @@
         <v>3050100</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G649" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H649" s="5">
         <v>0.05</v>
@@ -26246,10 +26265,10 @@
         <v>10</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D650" s="3">
         <v>45384</v>
@@ -26278,10 +26297,10 @@
         <v>10</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D651" s="3">
         <v>45405</v>
@@ -26310,10 +26329,10 @@
         <v>10</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D652" s="3">
         <v>45384</v>
@@ -26322,7 +26341,7 @@
         <v>6815056.5099999998</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G652" s="2" t="s">
         <v>658</v>
@@ -26342,10 +26361,10 @@
         <v>10</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D653" s="3">
         <v>45376</v>
@@ -26357,7 +26376,7 @@
         <v>36</v>
       </c>
       <c r="G653" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H653" s="5">
         <v>0.05</v>
@@ -26374,10 +26393,10 @@
         <v>10</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D654" s="3">
         <v>45398</v>
@@ -26389,7 +26408,7 @@
         <v>36</v>
       </c>
       <c r="G654" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H654" s="5">
         <v>0.2</v>
@@ -26406,10 +26425,10 @@
         <v>10</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D655" s="3">
         <v>45391</v>
@@ -26421,7 +26440,7 @@
         <v>36</v>
       </c>
       <c r="G655" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H655" s="5">
         <v>0.05</v>
@@ -26438,10 +26457,10 @@
         <v>10</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D656" s="3">
         <v>45461</v>
@@ -26453,7 +26472,7 @@
         <v>36</v>
       </c>
       <c r="G656" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H656" s="5">
         <v>0.1</v>
@@ -26470,10 +26489,10 @@
         <v>10</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D657" s="3">
         <v>45413</v>
@@ -26502,10 +26521,10 @@
         <v>10</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D658" s="3">
         <v>45545</v>
@@ -26534,10 +26553,10 @@
         <v>10</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D659" s="3">
         <v>45405</v>
@@ -26566,10 +26585,10 @@
         <v>10</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D660" s="3">
         <v>45413</v>
@@ -26598,10 +26617,10 @@
         <v>10</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D661" s="3">
         <v>45433</v>
@@ -26630,10 +26649,10 @@
         <v>10</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D662" s="3">
         <v>45426</v>
@@ -26662,10 +26681,10 @@
         <v>10</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D663" s="3">
         <v>45419</v>
@@ -26677,7 +26696,7 @@
         <v>36</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H663" s="5">
         <v>0.05</v>
@@ -26694,10 +26713,10 @@
         <v>10</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D664" s="3">
         <v>45426</v>
@@ -26726,10 +26745,10 @@
         <v>10</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D665" s="3">
         <v>45468</v>
@@ -26741,7 +26760,7 @@
         <v>36</v>
       </c>
       <c r="G665" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H665" s="5">
         <v>0.05</v>
@@ -26758,10 +26777,10 @@
         <v>10</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D666" s="3">
         <v>45454</v>
@@ -26790,10 +26809,10 @@
         <v>10</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D667" s="3">
         <v>45419</v>
@@ -26822,10 +26841,10 @@
         <v>10</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D668" s="3">
         <v>45443</v>
@@ -26854,10 +26873,10 @@
         <v>10</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D669" s="3">
         <v>45433</v>
@@ -26886,10 +26905,10 @@
         <v>10</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D670" s="3">
         <v>45447</v>
@@ -26901,7 +26920,7 @@
         <v>36</v>
       </c>
       <c r="G670" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H670" s="5">
         <v>0</v>
@@ -26918,10 +26937,10 @@
         <v>10</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D671" s="3">
         <v>45447</v>
@@ -26933,7 +26952,7 @@
         <v>36</v>
       </c>
       <c r="G671" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H671" s="5">
         <v>0</v>
@@ -26950,10 +26969,10 @@
         <v>10</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D672" s="3">
         <v>45447</v>
@@ -26982,10 +27001,10 @@
         <v>10</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D673" s="3">
         <v>45447</v>
@@ -26997,7 +27016,7 @@
         <v>36</v>
       </c>
       <c r="G673" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H673" s="5">
         <v>0</v>
@@ -27014,10 +27033,10 @@
         <v>10</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D674" s="3">
         <v>45447</v>
@@ -27029,7 +27048,7 @@
         <v>36</v>
       </c>
       <c r="G674" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H674" s="5">
         <v>0</v>
@@ -27046,10 +27065,10 @@
         <v>10</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D675" s="3">
         <v>45447</v>
@@ -27061,7 +27080,7 @@
         <v>36</v>
       </c>
       <c r="G675" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H675" s="5">
         <v>0</v>
@@ -27078,10 +27097,10 @@
         <v>10</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D676" s="3">
         <v>45454</v>
@@ -27110,10 +27129,10 @@
         <v>10</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D677" s="3">
         <v>45446</v>
@@ -27122,7 +27141,7 @@
         <v>5830348.0099999998</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G677" s="2" t="s">
         <v>321</v>
@@ -27142,10 +27161,10 @@
         <v>10</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D678" s="3">
         <v>45454</v>
@@ -27157,7 +27176,7 @@
         <v>36</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H678" s="5">
         <v>0.05</v>
@@ -27174,10 +27193,10 @@
         <v>10</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D679" s="3">
         <v>45446</v>
@@ -27186,7 +27205,7 @@
         <v>5830348.0099999998</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G679" s="2" t="s">
         <v>321</v>
@@ -27206,10 +27225,10 @@
         <v>10</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D680" s="3">
         <v>45468</v>
@@ -27238,10 +27257,10 @@
         <v>10</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D681" s="3">
         <v>45482</v>
@@ -27270,10 +27289,10 @@
         <v>10</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D682" s="3">
         <v>45467</v>
@@ -27282,7 +27301,7 @@
         <v>5820331.1399999997</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G682" s="2" t="s">
         <v>321</v>
@@ -27302,10 +27321,10 @@
         <v>10</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D683" s="3">
         <v>45505</v>
@@ -27314,7 +27333,7 @@
         <v>5816998</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G683" s="2" t="s">
         <v>321</v>
@@ -27334,10 +27353,10 @@
         <v>10</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D684" s="3">
         <v>45488</v>
@@ -27346,7 +27365,7 @@
         <v>5816998</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G684" s="2" t="s">
         <v>321</v>
@@ -27366,10 +27385,10 @@
         <v>10</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D685" s="3">
         <v>45453</v>
@@ -27378,7 +27397,7 @@
         <v>6913825.1399999997</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G685" s="2" t="s">
         <v>132</v>
@@ -27398,10 +27417,10 @@
         <v>10</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D686" s="3">
         <v>45467</v>
@@ -27410,7 +27429,7 @@
         <v>6905894.8099999996</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G686" s="2" t="s">
         <v>132</v>
@@ -27430,10 +27449,10 @@
         <v>10</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D687" s="3">
         <v>45461</v>
@@ -27445,7 +27464,7 @@
         <v>36</v>
       </c>
       <c r="G687" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H687" s="5">
         <v>0.1</v>
@@ -27462,10 +27481,10 @@
         <v>10</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D688" s="3">
         <v>45461</v>
@@ -27477,7 +27496,7 @@
         <v>36</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H688" s="5">
         <v>0.05</v>
@@ -27494,10 +27513,10 @@
         <v>10</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D689" s="3">
         <v>45496</v>
@@ -27509,7 +27528,7 @@
         <v>36</v>
       </c>
       <c r="G689" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H689" s="5">
         <v>0.05</v>
@@ -27526,10 +27545,10 @@
         <v>10</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D690" s="3">
         <v>45467</v>
@@ -27538,10 +27557,10 @@
         <v>4675037.26</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H690" s="5">
         <v>0.05</v>
@@ -27558,10 +27577,10 @@
         <v>10</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D691" s="3">
         <v>45467</v>
@@ -27570,10 +27589,10 @@
         <v>3001719</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H691" s="5">
         <v>0.05</v>
@@ -27590,10 +27609,10 @@
         <v>10</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D692" s="3">
         <v>45474</v>
@@ -27602,10 +27621,10 @@
         <v>3000000</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H692" s="5">
         <v>0.05</v>
@@ -27622,10 +27641,10 @@
         <v>10</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D693" s="3">
         <v>45482</v>
@@ -27654,10 +27673,10 @@
         <v>10</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D694" s="3">
         <v>45474</v>
@@ -27666,7 +27685,7 @@
         <v>6901940</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G694" s="2" t="s">
         <v>132</v>
@@ -27686,10 +27705,10 @@
         <v>10</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D695" s="3">
         <v>45481</v>
@@ -27718,10 +27737,10 @@
         <v>10</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D696" s="3">
         <v>45488</v>
@@ -27733,7 +27752,7 @@
         <v>36</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H696" s="5">
         <v>0.1</v>
@@ -27750,10 +27769,10 @@
         <v>10</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D697" s="3">
         <v>45503</v>
@@ -27765,7 +27784,7 @@
         <v>36</v>
       </c>
       <c r="G697" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H697" s="5">
         <v>0.05</v>
@@ -27782,10 +27801,10 @@
         <v>10</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D698" s="3">
         <v>45498</v>
@@ -27814,10 +27833,10 @@
         <v>10</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D699" s="3">
         <v>45510</v>
@@ -27829,7 +27848,7 @@
         <v>36</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H699" s="5">
         <v>0.05</v>
@@ -27846,10 +27865,10 @@
         <v>10</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D700" s="3">
         <v>45524</v>
@@ -27878,10 +27897,10 @@
         <v>10</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D701" s="3">
         <v>45516</v>
@@ -27910,10 +27929,10 @@
         <v>10</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D702" s="3">
         <v>45510</v>
@@ -27942,10 +27961,10 @@
         <v>10</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D703" s="3">
         <v>45545</v>
@@ -27957,7 +27976,7 @@
         <v>36</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H703" s="5">
         <v>0.1</v>
@@ -27974,10 +27993,10 @@
         <v>10</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D704" s="3">
         <v>45524</v>
@@ -28006,10 +28025,10 @@
         <v>10</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D705" s="3">
         <v>45538</v>
@@ -28038,10 +28057,10 @@
         <v>10</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D706" s="3">
         <v>45534</v>
@@ -28070,10 +28089,10 @@
         <v>10</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D707" s="3">
         <v>45552</v>
@@ -28102,10 +28121,10 @@
         <v>10</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D708" s="3">
         <v>45531</v>
@@ -28117,7 +28136,7 @@
         <v>36</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H708" s="5">
         <v>0.05</v>
@@ -28134,10 +28153,10 @@
         <v>10</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D709" s="3">
         <v>45534</v>
@@ -28166,10 +28185,10 @@
         <v>10</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D710" s="3">
         <v>45534</v>
@@ -28198,10 +28217,10 @@
         <v>10</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D711" s="3">
         <v>45538</v>
@@ -28230,10 +28249,10 @@
         <v>10</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D712" s="3">
         <v>45534</v>
@@ -28262,10 +28281,10 @@
         <v>10</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D713" s="3">
         <v>45531</v>
@@ -28277,7 +28296,7 @@
         <v>36</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H713" s="5">
         <v>0.05</v>
@@ -28294,10 +28313,10 @@
         <v>10</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D714" s="3">
         <v>45534</v>
@@ -28326,10 +28345,10 @@
         <v>10</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D715" s="3">
         <v>45534</v>
@@ -28358,10 +28377,10 @@
         <v>10</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D716" s="3">
         <v>45538</v>
@@ -28390,10 +28409,10 @@
         <v>10</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D717" s="3">
         <v>45534</v>
@@ -28422,10 +28441,10 @@
         <v>10</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D718" s="3">
         <v>45538</v>
@@ -28454,10 +28473,10 @@
         <v>10</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D719" s="3">
         <v>45545</v>
@@ -28486,10 +28505,10 @@
         <v>10</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D720" s="3">
         <v>45559</v>
@@ -28518,10 +28537,10 @@
         <v>10</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D721" s="3">
         <v>45552</v>
@@ -28533,7 +28552,7 @@
         <v>36</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H721" s="5">
         <v>0.05</v>
@@ -28550,10 +28569,10 @@
         <v>10</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D722" s="3">
         <v>45566</v>
@@ -28582,10 +28601,10 @@
         <v>10</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D723" s="3">
         <v>45559</v>
@@ -28614,10 +28633,10 @@
         <v>10</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D724" s="3">
         <v>45559</v>
@@ -28629,7 +28648,7 @@
         <v>36</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H724" s="5">
         <v>0.05</v>
@@ -28646,10 +28665,10 @@
         <v>10</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D725" s="3">
         <v>45566</v>
@@ -28658,10 +28677,10 @@
         <v>3000000</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G725" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H725" s="5">
         <v>0.05</v>
@@ -28678,10 +28697,10 @@
         <v>10</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D726" s="3">
         <v>45566</v>
@@ -28705,36 +28724,132 @@
         <v>250.033333</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D727" s="3">
+        <v>45573</v>
+      </c>
+      <c r="E727" s="7">
+        <v>77000</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G727" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H727" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I727" s="6">
+        <v>3850</v>
+      </c>
+      <c r="J727" s="6">
+        <v>320.83333299999998</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D728" s="3">
+        <v>45573</v>
+      </c>
+      <c r="E728" s="7">
+        <v>60008</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G728" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H728" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I728" s="6">
+        <v>3000.4</v>
+      </c>
+      <c r="J728" s="6">
+        <v>250.033333</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D729" s="3">
         <v>45566</v>
       </c>
-      <c r="E727" s="7">
+      <c r="E729" s="7">
         <v>70000</v>
       </c>
-      <c r="F727" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G727" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H727" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="I727" s="6">
+      <c r="F729" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G729" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H729" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I729" s="6">
         <v>3500</v>
       </c>
-      <c r="J727" s="6">
+      <c r="J729" s="6">
         <v>291.66666700000002</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D730" s="3">
+        <v>45573</v>
+      </c>
+      <c r="E730" s="7">
+        <v>77000</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H730" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="I730" s="6">
+        <v>3850</v>
+      </c>
+      <c r="J730" s="6">
+        <v>320.83333299999998</v>
       </c>
     </row>
   </sheetData>
